--- a/data/nfl_codebook.xlsx
+++ b/data/nfl_codebook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonleff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonleff/Library/Containers/com.microsoft.Excel/Data/Desktop/math456/project/456nflproject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1937DD1E-F69E-4741-9BAC-9E6808011734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D42CA-0C97-D649-8A22-AFC5CEF55458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{E43AF12B-0E02-A24C-968C-D8F1BD07D68E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{E43AF12B-0E02-A24C-968C-D8F1BD07D68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,12 +396,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339C334E-470F-1E4C-9E56-069E54512E1F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/nfl_codebook.xlsx
+++ b/data/nfl_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonleff/Library/Containers/com.microsoft.Excel/Data/Desktop/math456/project/456nflproject/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennytran/nflproject2/nflproject456/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D42CA-0C97-D649-8A22-AFC5CEF55458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5144FA5D-2C7C-A744-A0B0-A8449A66110C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{E43AF12B-0E02-A24C-968C-D8F1BD07D68E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{E43AF12B-0E02-A24C-968C-D8F1BD07D68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Data Type</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>hi</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339C334E-470F-1E4C-9E56-069E54512E1F}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,6 +421,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/nfl_codebook.xlsx
+++ b/data/nfl_codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennytran/nflproject2/nflproject456/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5144FA5D-2C7C-A744-A0B0-A8449A66110C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80035F0-1325-5C48-96C2-CF9530AD6CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{E43AF12B-0E02-A24C-968C-D8F1BD07D68E}"/>
+    <workbookView xWindow="15780" yWindow="460" windowWidth="23120" windowHeight="16240" xr2:uid="{E43AF12B-0E02-A24C-968C-D8F1BD07D68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>Data Type</t>
   </si>
@@ -41,13 +41,235 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Values</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>hi</t>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>qtr</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>yrdln</t>
+  </si>
+  <si>
+    <t>ydstogo</t>
+  </si>
+  <si>
+    <t>FirstDown</t>
+  </si>
+  <si>
+    <t>posteam</t>
+  </si>
+  <si>
+    <t>DefensiveTeam</t>
+  </si>
+  <si>
+    <t>Yards.Gained</t>
+  </si>
+  <si>
+    <t>Touchdown</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>ExPointResult</t>
+  </si>
+  <si>
+    <t>TwoPointConv</t>
+  </si>
+  <si>
+    <t>DefTwo Point</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>PlayType</t>
+  </si>
+  <si>
+    <t>PassAttempt</t>
+  </si>
+  <si>
+    <t>PassOutcome</t>
+  </si>
+  <si>
+    <t>PassLength</t>
+  </si>
+  <si>
+    <t>YardsAfterCatch</t>
+  </si>
+  <si>
+    <t>InterceptionThrown</t>
+  </si>
+  <si>
+    <t>RushAttempt</t>
+  </si>
+  <si>
+    <t>RunLocation</t>
+  </si>
+  <si>
+    <t>RunGap</t>
+  </si>
+  <si>
+    <t>FieldGoalResult</t>
+  </si>
+  <si>
+    <t>FieldGoalDistance</t>
+  </si>
+  <si>
+    <t>Fumble</t>
+  </si>
+  <si>
+    <t>Sack</t>
+  </si>
+  <si>
+    <t>PenalizedTeam</t>
+  </si>
+  <si>
+    <t>Penalty.Yards</t>
+  </si>
+  <si>
+    <t>PosTeamScore</t>
+  </si>
+  <si>
+    <t>DefTeamScore</t>
+  </si>
+  <si>
+    <t>ScoreDiff</t>
+  </si>
+  <si>
+    <t>HomeTeam</t>
+  </si>
+  <si>
+    <t>AwayTeam</t>
+  </si>
+  <si>
+    <t>No_Score_Prob</t>
+  </si>
+  <si>
+    <t>Opp_Field_Goal_Prob</t>
+  </si>
+  <si>
+    <t>Opp_Safety_Prob</t>
+  </si>
+  <si>
+    <t>Opp_Touchdown_Prob</t>
+  </si>
+  <si>
+    <t>Field_Goal_Prob</t>
+  </si>
+  <si>
+    <t>Safety_Prob</t>
+  </si>
+  <si>
+    <t>Touchdown_Prob</t>
+  </si>
+  <si>
+    <t>ExPoint_Prob</t>
+  </si>
+  <si>
+    <t>TwoPoint_Prob</t>
+  </si>
+  <si>
+    <t>RecFumbTeam</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>Series of plays when the offense has the football, until it punts or scores and the other team gets possession of the ball</t>
+  </si>
+  <si>
+    <t>1-35</t>
+  </si>
+  <si>
+    <t>main unit of time masurement for a game</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>Variable Label</t>
+  </si>
+  <si>
+    <t>Valid Range</t>
+  </si>
+  <si>
+    <t>a period in which a play transpires. Nas are most likely due to field goals or kick offs</t>
+  </si>
+  <si>
+    <t>1-4, NA</t>
+  </si>
+  <si>
+    <t>1-50</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Yard Line</t>
+  </si>
+  <si>
+    <t>Yards to Go</t>
+  </si>
+  <si>
+    <t>First Down</t>
+  </si>
+  <si>
+    <t>a place marking the distance from the line of scrimmage to the closest goal line</t>
+  </si>
+  <si>
+    <t>yards to go to get to the next first down</t>
+  </si>
+  <si>
+    <t>0-50</t>
+  </si>
+  <si>
+    <t>Whether or not the team made it to first down</t>
+  </si>
+  <si>
+    <t>0 - False, 1- True</t>
+  </si>
+  <si>
+    <t>Posession of Team??</t>
+  </si>
+  <si>
+    <t>Defensive Team</t>
+  </si>
+  <si>
+    <t>Yards Gained</t>
+  </si>
+  <si>
+    <t>-74-99</t>
+  </si>
+  <si>
+    <t>Yards gained during play</t>
+  </si>
+  <si>
+    <t>Whether or not the team made a touchdown</t>
+  </si>
+  <si>
+    <t>Touchdowm</t>
+  </si>
+  <si>
+    <t>Two Point Conversion</t>
+  </si>
+  <si>
+    <t>NA?</t>
+  </si>
+  <si>
+    <t>If there was a two point conversion during play</t>
   </si>
 </sst>
 </file>
@@ -63,12 +285,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,8 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,32 +632,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339C334E-470F-1E4C-9E56-069E54512E1F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/nfl_codebook.xlsx
+++ b/data/nfl_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennytran/nflproject2/nflproject456/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonleff/Library/Containers/com.microsoft.Excel/Data/Desktop/math456/project/456nflproject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80035F0-1325-5C48-96C2-CF9530AD6CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE86FE-DE85-774D-B9AF-67A5C505AB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15780" yWindow="460" windowWidth="23120" windowHeight="16240" xr2:uid="{E43AF12B-0E02-A24C-968C-D8F1BD07D68E}"/>
+    <workbookView xWindow="5680" yWindow="460" windowWidth="23120" windowHeight="16240" xr2:uid="{E43AF12B-0E02-A24C-968C-D8F1BD07D68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>Data Type</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Drive</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>0 - False, 1- True</t>
   </si>
   <si>
-    <t>Posession of Team??</t>
-  </si>
-  <si>
     <t>Defensive Team</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
     <t>Whether or not the team made a touchdown</t>
   </si>
   <si>
-    <t>Touchdowm</t>
-  </si>
-  <si>
     <t>Two Point Conversion</t>
   </si>
   <si>
@@ -270,13 +261,37 @@
   </si>
   <si>
     <t>If there was a two point conversion during play</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes </t>
+  </si>
+  <si>
+    <t>Extra Point Result</t>
+  </si>
+  <si>
+    <t>Need to look into JAX, JAC, STL, LAR</t>
+  </si>
+  <si>
+    <t>Team with Possession of Ball</t>
+  </si>
+  <si>
+    <t>Need to look into what this variable means.</t>
+  </si>
+  <si>
+    <t>Defensive Two Point Score</t>
+  </si>
+  <si>
+    <t>Type of Play</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,8 +299,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +321,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -307,17 +336,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,531 +723,654 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="2" width="20.5" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="13"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="2"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/nfl_codebook.xlsx
+++ b/data/nfl_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonleff/Library/Containers/com.microsoft.Excel/Data/Desktop/math456/project/456nflproject/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennytran/nflproject2/nflproject456/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE86FE-DE85-774D-B9AF-67A5C505AB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F2445-22BB-814B-94DD-342BA38022AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="460" windowWidth="23120" windowHeight="16240" xr2:uid="{E43AF12B-0E02-A24C-968C-D8F1BD07D68E}"/>
+    <workbookView xWindow="14560" yWindow="460" windowWidth="14240" windowHeight="16240" xr2:uid="{E43AF12B-0E02-A24C-968C-D8F1BD07D68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
   <si>
     <t>Data Type</t>
   </si>
@@ -285,13 +285,160 @@
   </si>
   <si>
     <t>Type of Play</t>
+  </si>
+  <si>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Probability of No Score</t>
+  </si>
+  <si>
+    <t>Probability of Opposing Field Goal</t>
+  </si>
+  <si>
+    <t>Probability of Opposing Safety</t>
+  </si>
+  <si>
+    <t>Probability of Opposing Scoring Touchdown</t>
+  </si>
+  <si>
+    <t>Probability of Field Goal</t>
+  </si>
+  <si>
+    <t>Probability of Safety</t>
+  </si>
+  <si>
+    <t>Probability of Touchdown</t>
+  </si>
+  <si>
+    <t>Probability of ExPoint</t>
+  </si>
+  <si>
+    <t>Probability of Two Point Conversion</t>
+  </si>
+  <si>
+    <t>Length of Pass</t>
+  </si>
+  <si>
+    <t>Yards Travelled After Catch</t>
+  </si>
+  <si>
+    <t>NA, Made</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>Pass, Run</t>
+  </si>
+  <si>
+    <t>Need to know if "others" should be included in valid range</t>
+  </si>
+  <si>
+    <t>NA, Complete</t>
+  </si>
+  <si>
+    <t>NA, Short</t>
+  </si>
+  <si>
+    <t>consider adding deep if other is included</t>
+  </si>
+  <si>
+    <t>-81-90</t>
+  </si>
+  <si>
+    <t>NA, right</t>
+  </si>
+  <si>
+    <t>middle, left</t>
+  </si>
+  <si>
+    <t>guard, tackle</t>
+  </si>
+  <si>
+    <t>NA, end</t>
+  </si>
+  <si>
+    <t>NA, Good</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>if not NA, numeric value</t>
+  </si>
+  <si>
+    <t>if not NA, team name</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>0-66</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>NA, 6</t>
+  </si>
+  <si>
+    <t>0,-7</t>
+  </si>
+  <si>
+    <t>NA, other numeric values</t>
+  </si>
+  <si>
+    <t>NE, PHI</t>
+  </si>
+  <si>
+    <t>PHI, Den</t>
+  </si>
+  <si>
+    <t>Need to look into JAX, JAC, STL, LAR…other team names</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>Whether or not Interception was Thrown</t>
+  </si>
+  <si>
+    <t>Whether or Rush was Attempted</t>
+  </si>
+  <si>
+    <t>Run Position</t>
+  </si>
+  <si>
+    <t>Description Field Goal Attempt</t>
+  </si>
+  <si>
+    <t>Whether or not there was a fumble</t>
+  </si>
+  <si>
+    <t>Team of Reveiving Fumble</t>
+  </si>
+  <si>
+    <t>Whether or not there was a sack</t>
+  </si>
+  <si>
+    <t>Name of Penalized Team</t>
+  </si>
+  <si>
+    <t>Penalty Yards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,6 +450,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -723,7 +876,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,7 +1109,9 @@
       <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="11"/>
     </row>
@@ -988,7 +1143,9 @@
       <c r="C15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="9"/>
     </row>
@@ -1002,11 +1159,13 @@
       <c r="C16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
@@ -1016,9 +1175,13 @@
       <c r="C17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -1028,11 +1191,13 @@
       <c r="C18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
@@ -1040,55 +1205,75 @@
       <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="C20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F20" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="C21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="C23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
     </row>
@@ -1096,15 +1281,21 @@
       <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="C24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F24" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
@@ -1112,23 +1303,33 @@
       <c r="C25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F25" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="C26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F26" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
@@ -1136,55 +1337,77 @@
       <c r="C27" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F27" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="C28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="C29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="F29" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="C30" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="C31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="9"/>
     </row>
@@ -1192,11 +1415,15 @@
       <c r="A32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="C32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="9"/>
     </row>
@@ -1208,9 +1435,13 @@
       <c r="C33" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
@@ -1220,11 +1451,13 @@
       <c r="C34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
@@ -1232,95 +1465,127 @@
       <c r="C35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="C36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="C37" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="15" t="s">
+        <v>121</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="12" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="C38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="C39" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="C40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="C41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="C42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="9"/>
     </row>
@@ -1328,23 +1593,31 @@
       <c r="A43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="C43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="15"/>
+      <c r="D43" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="C44" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="9"/>
     </row>
@@ -1352,27 +1625,36 @@
       <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="C45" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="C46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>